--- a/Design/Main_Data/Const.xlsx
+++ b/Design/Main_Data/Const.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chief\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FlushX\trunk\Design\Main_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>nameTag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,22 @@
   </si>
   <si>
     <t>대상 선택 시간 (1000 = 1초), 스킬 사용도 여기에 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clean_DEF_Const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crash_DEF_Const</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력이 뚫려서 추가 데미지 (본래 데미지의 130%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">완벽한 방어로 데미지 감소 (본래 데미지의 70%) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -521,6 +537,28 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
